--- a/Segumiento de errores.xlsx
+++ b/Segumiento de errores.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d872f1b9f0bd96af/Educacion/QA4.0/ProyectoFinal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d872f1b9f0bd96af/Educacion/QA4.0/ProyectoFinal/Eduardo-Rejon-TestingAI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_F25DC773A252ABDACC104827C1D9504C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{761DDCC0-217A-43DC-A6B0-035810F1A6E5}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_F25DC773A252ABDACC104827C1D9504C5ADE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73807012-D8A2-41E7-8C00-0A4547EDAB34}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -431,7 +431,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="4" width="14.5703125" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
     <col min="6" max="6" width="21.5703125" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
